--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table4.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015F5E1-6F72-8449-8E73-09049DCCABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D2045-6088-2941-8788-4D037CDB908C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Area of residence</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
   </si>
 </sst>
 </file>
@@ -461,16 +464,16 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52"/>
     <col min="2" max="3" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +495,10 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="6">
         <v>239</v>
       </c>
@@ -501,7 +506,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -512,7 +517,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -523,7 +528,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -534,7 +539,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -567,7 +572,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -589,7 +594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
